--- a/test/test_case_db_values.xlsx
+++ b/test/test_case_db_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_pypsa/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node.localized/nobackup/scratch/awongel/clab_borehole_th_storage/table_pypsa/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC22741-9FF6-0B43-BDC4-1332A5DB0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2670CA-36EA-9F45-B04F-68E2BEAFC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="880" windowWidth="29840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -302,9 +302,6 @@
     <t>https://raw.githubusercontent.com/PyPSA/technology-data/master/outputs/costs_2020.csv</t>
   </si>
   <si>
-    <t>p_min_pu</t>
-  </si>
-  <si>
     <t>Note: p_min_pu allow bidirectionality of link</t>
   </si>
   <si>
@@ -345,6 +342,12 @@
   </si>
   <si>
     <t>test_prefix_db_values</t>
+  </si>
+  <si>
+    <t>p_max_pu</t>
+  </si>
+  <si>
+    <t>p_set</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,9 +886,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -947,9 +947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -987,7 +987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1093,7 +1093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1235,7 +1235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1592,10 +1592,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1604,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>70</v>
@@ -1658,7 +1658,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -1702,10 +1702,10 @@
         <v>29</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1752,14 +1752,14 @@
         <v>41</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K50" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M50" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
@@ -1780,11 +1780,11 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L51" s="16"/>
       <c r="P51" s="5"/>
@@ -1794,7 +1794,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -1803,21 +1803,21 @@
         <v>14</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M52" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/kWh</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -1825,7 +1825,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -1833,7 +1833,7 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="17" t="str">
+      <c r="J53" s="16" t="str">
         <f>N53&amp;"*db_capital_cost"</f>
         <v>6.008*db_capital_cost</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>$/time range/kW</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M53" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
@@ -1880,21 +1880,21 @@
         <v>14</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M54" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/kWh</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -1914,14 +1914,14 @@
         <v>43</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K55" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M55" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
@@ -1946,21 +1946,21 @@
         <v>30</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K56" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M56" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/kWh</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
         <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -1977,14 +1977,14 @@
         <v>30</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K57" t="str">
         <f>B42 &amp; "/time range/" &amp; B41 &amp; B40</f>
         <v>$/time range/kWh</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
@@ -2003,7 +2003,7 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -2015,21 +2015,21 @@
         <v>14</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K58" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/kW</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M58" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/kWh</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
